--- a/Shiny/Dati/Granulazione_2^5-2.xlsx
+++ b/Shiny/Dati/Granulazione_2^5-2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B53FE-26EA-4D62-8B05-089E58E2604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7422E5D4-C9B6-4E26-8D21-9FB2CCCEED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{596F46D9-391D-4EFF-915D-DF7B5D1524BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{596F46D9-391D-4EFF-915D-DF7B5D1524BF}"/>
   </bookViews>
   <sheets>
     <sheet name="GRANULAZIONE FrFD 2^(5-2) III" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>x1</t>
   </si>
@@ -95,6 +96,21 @@
   <si>
     <t>200-400</t>
   </si>
+  <si>
+    <t>Part.size</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
 </sst>
 </file>
 
@@ -451,7 +467,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,7 +502,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A69531E-90B9-4949-BB27-CC567F0BDE59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D605062C-CE32-4593-994B-2CBA62D7935A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -494,8 +510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22860" y="3284220"/>
-          <a:ext cx="7048500" cy="3524250"/>
+          <a:off x="22860" y="3398520"/>
+          <a:ext cx="6974205" cy="3669030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,7 +598,7 @@
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>X1: Contenuto di legante nella soluzione (%, p/p): 1; 2</a:t>
+            <a:t>X1: Leg, Legante, contenuto di legante nella soluzione (%, p/p): 1; 2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -598,7 +614,7 @@
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>X2: Tempo di granulazione (2 min – 5 min): 2; 5</a:t>
+            <a:t>X2: tempo, tempo di granulazione (2 min – 5 min): 2; 5</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -614,7 +630,25 @@
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>X3. Particle size dell’attivo (mm):</a:t>
+            <a:t>X3: Part.size,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Particle size dell’attivo (mm):</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0">
@@ -645,7 +679,25 @@
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>X4. Volume della soluzione legante (%,</a:t>
+            <a:t>X4: Vol,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Volume</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> della soluzione legante (%,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0">
@@ -703,7 +755,7 @@
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> Load, Loading, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100">
@@ -784,7 +836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1082,19 +1134,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650570BE-4614-4C9B-BFB5-5F82E49B2154}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,25 +1163,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>-1</v>
       </c>
@@ -1164,7 +1216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1199,7 +1251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>-1</v>
       </c>
@@ -1234,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1269,7 +1321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>-1</v>
       </c>
@@ -1304,7 +1356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1339,7 +1391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>-1</v>
       </c>
@@ -1374,7 +1426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1409,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1421,7 +1473,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>0</v>
       </c>
@@ -1456,7 +1508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>0</v>
       </c>
@@ -1491,7 +1543,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>0</v>
       </c>
@@ -1526,7 +1578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>0</v>
       </c>
@@ -1561,7 +1613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>0</v>
       </c>
@@ -1596,7 +1648,565 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>0</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="37">
+        <v>7.5</v>
+      </c>
+      <c r="J16" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="44">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25F2A9C-9E33-4D52-9BBC-72C9FAA055E4}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="11">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2</v>
+      </c>
+      <c r="K7" s="13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>5</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="18">
+        <v>10</v>
+      </c>
+      <c r="J9" s="18">
+        <v>2</v>
+      </c>
+      <c r="K9" s="19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>0</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>0</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="J12" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>0</v>
+      </c>
+      <c r="B13" s="34">
+        <v>0</v>
+      </c>
+      <c r="C13" s="34">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="37">
+        <v>7.5</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="41">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>0</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>0</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="J15" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>0</v>
       </c>
